--- a/data/internal/ace2_accessions.xlsx
+++ b/data/internal/ace2_accessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nardus/Documents/Postdocs/ace2/data/internal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A861B96-230E-6844-9E22-78D232B0FCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D289B7-4EEE-B749-AD4A-6919D31A5703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="22540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,7 +687,7 @@
     <t>haddock_species</t>
   </si>
   <si>
-    <t>Canis lupus</t>
+    <t>Canis lupus familiaris</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="61">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1277,146 +1277,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1814,7 +1674,7 @@
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3865,18 +3725,18 @@
     <sortCondition ref="D2:D100"/>
   </sortState>
   <conditionalFormatting sqref="C1:E1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="beginsWith" dxfId="66" priority="66" operator="beginsWith" text="NA">
+    <cfRule type="beginsWith" dxfId="59" priority="66" operator="beginsWith" text="NA">
       <formula>LEFT(D1,LEN("NA"))="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="this_species">
+    <cfRule type="containsText" dxfId="58" priority="64" operator="containsText" text="this_species">
       <formula>NOT(ISERROR(SEARCH("this_species",E1)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="64" priority="65">
+    <cfRule type="containsBlanks" dxfId="57" priority="65">
       <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/internal/ace2_accessions.xlsx
+++ b/data/internal/ace2_accessions.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Bos taurus</t>
   </si>
   <si>
-    <t xml:space="preserve">NP_001019673.2</t>
+    <t xml:space="preserve">XP_005228485.1</t>
   </si>
   <si>
     <t xml:space="preserve">Bubalus bubalis</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">Felis catus</t>
   </si>
   <si>
-    <t xml:space="preserve">AAX59005.1</t>
+    <t xml:space="preserve">XP_023104564.1</t>
   </si>
   <si>
     <t xml:space="preserve">Lynx canadensis</t>
@@ -1485,19 +1485,20 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.33"/>
   </cols>
   <sheetData>
@@ -1664,7 +1665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>

--- a/data/internal/ace2_accessions.xlsx
+++ b/data/internal/ace2_accessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nardus/Documents/Postdocs/ace2/data/internal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478F19A-C7A3-454C-B8D0-6073F87216DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBDBA4E-EC04-4C4E-B7FA-D10C7800AA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23080" windowHeight="19960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>Felis catus</t>
   </si>
   <si>
-    <t>XP_023104564.1</t>
-  </si>
-  <si>
     <t>Lynx canadensis</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>Panthera tigris</t>
   </si>
   <si>
-    <t>XP_007090142.1</t>
-  </si>
-  <si>
     <t>Procyon lotor</t>
   </si>
   <si>
@@ -483,9 +477,6 @@
     <t>Macaca fascicularis</t>
   </si>
   <si>
-    <t>XP_005593094.1</t>
-  </si>
-  <si>
     <t>Macaca mulatta</t>
   </si>
   <si>
@@ -676,6 +667,15 @@
   </si>
   <si>
     <t>Closest species based on timetree.org; 2 equidistant candidates, this one listed in NCBI ortholog table so so more likely to have been checked for errors</t>
+  </si>
+  <si>
+    <t>NP_001034545.1</t>
+  </si>
+  <si>
+    <t>XP_005593094.2</t>
+  </si>
+  <si>
+    <t>XP_007090142.2</t>
   </si>
 </sst>
 </file>
@@ -1161,9 +1161,9 @@
   <dimension ref="A1:AMJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="A20:XFD20"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1480,7 +1480,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
@@ -1494,10 +1494,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
@@ -1511,12 +1511,12 @@
         <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1527,10 +1527,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -1544,10 +1544,10 @@
         <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
@@ -1561,10 +1561,10 @@
         <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>10</v>
@@ -1578,10 +1578,10 @@
         <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
@@ -1595,10 +1595,10 @@
         <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>10</v>
@@ -1612,10 +1612,10 @@
         <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>10</v>
@@ -1629,13 +1629,13 @@
         <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1646,10 +1646,10 @@
         <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
@@ -1663,10 +1663,10 @@
         <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -1680,12 +1680,12 @@
         <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1696,10 +1696,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>10</v>
@@ -1713,10 +1713,10 @@
         <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>10</v>
@@ -1730,10 +1730,10 @@
         <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>10</v>
@@ -1747,10 +1747,10 @@
         <v>37</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>10</v>
@@ -1761,13 +1761,13 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>10</v>
@@ -1778,13 +1778,13 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>10</v>
@@ -1795,13 +1795,13 @@
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>10</v>
@@ -1812,13 +1812,13 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>10</v>
@@ -1829,13 +1829,13 @@
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>10</v>
@@ -1846,13 +1846,13 @@
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>10</v>
@@ -1863,16 +1863,16 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1880,16 +1880,16 @@
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1897,13 +1897,13 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
@@ -1914,13 +1914,13 @@
         <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>10</v>
@@ -1931,19 +1931,19 @@
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1951,13 +1951,13 @@
         <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>10</v>
@@ -1968,13 +1968,13 @@
         <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
@@ -1985,19 +1985,19 @@
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2005,13 +2005,13 @@
         <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>10</v>
@@ -2022,13 +2022,13 @@
         <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>10</v>
@@ -2039,13 +2039,13 @@
         <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>10</v>
@@ -2056,19 +2056,19 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2076,13 +2076,13 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>10</v>
@@ -2093,13 +2093,13 @@
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
@@ -2110,19 +2110,19 @@
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2130,13 +2130,13 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>10</v>
@@ -2147,19 +2147,19 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2167,13 +2167,13 @@
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -2184,13 +2184,13 @@
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>10</v>
@@ -2201,13 +2201,13 @@
         <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>10</v>
@@ -2218,13 +2218,13 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>10</v>
@@ -2235,13 +2235,13 @@
         <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>10</v>
@@ -2252,13 +2252,13 @@
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>10</v>
@@ -2269,13 +2269,13 @@
         <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>10</v>
@@ -2286,13 +2286,13 @@
         <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>10</v>
@@ -2303,13 +2303,13 @@
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>10</v>
@@ -2320,13 +2320,13 @@
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>10</v>
@@ -2337,13 +2337,13 @@
         <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>10</v>
@@ -2354,13 +2354,13 @@
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>10</v>
@@ -2371,13 +2371,13 @@
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>10</v>
@@ -2388,13 +2388,13 @@
         <v>21</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>10</v>
@@ -2405,13 +2405,13 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>10</v>
@@ -2422,13 +2422,13 @@
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>10</v>
@@ -2439,13 +2439,13 @@
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>10</v>
@@ -2456,13 +2456,13 @@
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>10</v>
@@ -2473,13 +2473,13 @@
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>10</v>
@@ -2490,16 +2490,16 @@
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="E77" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2507,13 +2507,13 @@
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>10</v>
@@ -2524,16 +2524,16 @@
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2541,13 +2541,13 @@
         <v>21</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>10</v>
@@ -2558,13 +2558,13 @@
         <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>10</v>
@@ -2575,13 +2575,13 @@
         <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>10</v>
@@ -2592,19 +2592,19 @@
         <v>21</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="D83" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2612,13 +2612,13 @@
         <v>21</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>10</v>
@@ -2629,13 +2629,13 @@
         <v>21</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>10</v>
@@ -2646,13 +2646,13 @@
         <v>21</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>10</v>
@@ -2663,13 +2663,13 @@
         <v>21</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>10</v>
@@ -2680,19 +2680,19 @@
         <v>21</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2700,13 +2700,13 @@
         <v>21</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>10</v>
@@ -2717,13 +2717,13 @@
         <v>21</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>10</v>
@@ -2734,13 +2734,13 @@
         <v>21</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -2751,16 +2751,16 @@
         <v>21</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2768,16 +2768,16 @@
         <v>21</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2785,19 +2785,19 @@
         <v>21</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2805,19 +2805,19 @@
         <v>21</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2825,19 +2825,19 @@
         <v>21</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2845,16 +2845,16 @@
         <v>21</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2862,16 +2862,16 @@
         <v>21</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2879,19 +2879,19 @@
         <v>21</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
